--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gillianye/Desktop/resource/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gillianye/GitHub profile/Data-Structure-Algoritham/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949A457-0AFF-B34D-83FC-6EF75EBE43B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD353E-BDC3-134A-AA7F-ADC5E7B0A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="1780" windowWidth="36800" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="2280" windowWidth="36560" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -985,6 +985,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -992,38 +993,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1031,12 +1039,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1044,6 +1054,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1051,18 +1062,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1070,8 +1084,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,6 +1147,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1168,7 +1201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1194,6 +1227,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1415,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2056,10 +2093,10 @@
       <c r="C38" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="16" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2124,10 +2161,10 @@
       <c r="C42" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2141,10 +2178,10 @@
       <c r="C43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2158,10 +2195,10 @@
       <c r="C44" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="16" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2192,10 +2229,10 @@
       <c r="C46" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="16" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2209,10 +2246,10 @@
       <c r="C47" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="27" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2328,10 +2365,10 @@
       <c r="C54" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="27" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2359,13 +2396,13 @@
       <c r="B56" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="27" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2413,10 +2450,10 @@
       <c r="C59" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="16" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2430,10 +2467,10 @@
       <c r="C60" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="16" t="s">
         <v>238</v>
       </c>
     </row>

--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gillianye/GitHub profile/Data-Structure-Algoritham/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD353E-BDC3-134A-AA7F-ADC5E7B0A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191C290-2FFA-4843-A330-1EF201B6B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="2280" windowWidth="36560" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="1280" windowWidth="36560" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1452,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2212,10 +2212,10 @@
       <c r="C45" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="27" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2484,10 +2484,10 @@
       <c r="C61" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="16" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2501,10 +2501,10 @@
       <c r="C62" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="16" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2518,10 +2518,10 @@
       <c r="C63" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2535,10 +2535,10 @@
       <c r="C64" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="16" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2569,10 +2569,10 @@
       <c r="C66" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="16" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2603,10 +2603,10 @@
       <c r="C68" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="16" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2671,10 +2671,10 @@
       <c r="C72" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="16" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gillianye/GitHub profile/Data-Structure-Algoritham/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191C290-2FFA-4843-A330-1EF201B6B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D84E-0309-0E40-8E84-F5F974EBCA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="1280" windowWidth="36560" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1452,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1629,1155 +1629,1155 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>206</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>51</v>
+        <v>206</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>206</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
+      <c r="A16" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>217</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>206</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>206</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>206</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>76</v>
+        <v>232</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>236</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
+      <c r="A22" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>84</v>
+        <v>240</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>164</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>92</v>
+        <v>169</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>164</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>100</v>
+        <v>164</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>104</v>
+        <v>181</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>108</v>
+        <v>185</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>111</v>
+        <v>300</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>120</v>
+        <v>300</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>125</v>
+        <v>244</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>129</v>
+        <v>244</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>133</v>
+      <c r="A34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>135</v>
+      <c r="A35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>110</v>
+      <c r="A36" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>141</v>
+        <v>261</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>148</v>
+        <v>244</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>156</v>
+        <v>276</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>143</v>
+      <c r="A41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>171</v>
+        <v>244</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>175</v>
+        <v>244</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>179</v>
+        <v>297</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="B46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>183</v>
+        <v>45</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="A47" s="7"/>
       <c r="B47" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>187</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>191</v>
+        <v>53</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>195</v>
+        <v>45</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>196</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>199</v>
+        <v>45</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>315</v>
+        <v>115</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>216</v>
+        <v>110</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>313</v>
+      <c r="A55" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>314</v>
+        <v>110</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>222</v>
+      <c r="A56" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>226</v>
+      <c r="A57" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>230</v>
+      <c r="A58" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>234</v>
+        <v>65</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>238</v>
+        <v>70</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>206</v>
+      <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>242</v>
+        <v>74</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>247</v>
+        <v>65</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>251</v>
+        <v>65</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>255</v>
+        <v>65</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>256</v>
+        <v>89</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>257</v>
+        <v>65</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>259</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>263</v>
+        <v>94</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>265</v>
+        <v>65</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>271</v>
+        <v>65</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>277</v>
+        <v>143</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>283</v>
+        <v>148</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>287</v>
+        <v>143</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>289</v>
+        <v>155</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>244</v>
+      <c r="A74" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>293</v>
+        <v>160</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>297</v>
+        <v>189</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>299</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>302</v>
+        <v>197</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>303</v>
+        <v>198</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>305</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>308</v>
+        <v>189</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5566,140 +5566,140 @@
     <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="A10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="D10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A16" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A18" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A20" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A21" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A22" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A24" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A25" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A26" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A27" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A28" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A29" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D29" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D31" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A32" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D32" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A33" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D33" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D34" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A35" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D35" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A36" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A37" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D37" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A38" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A39" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D39" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A40" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D40" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A41" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D41" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A42" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D42" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A43" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D43" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A44" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D44" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A45" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D45" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A46" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D46" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A47" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D47" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A48" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D48" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A49" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D49" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A50" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D50" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A51" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D51" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A52" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D52" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D53" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A54" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D54" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A55" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D55" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A56" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D56" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A57" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D57" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A58" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D58" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A59" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D59" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A60" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D60" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A61" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D61" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="A62" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D62" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A63" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D63" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="A64" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D64" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="A65" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D65" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="A66" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D66" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="A67" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D67" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A68" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D68" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="A69" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D69" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A70" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D70" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="A71" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D71" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A72" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D72" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="A73" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D73" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="A74" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D74" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="A75" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D75" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="A76" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D76" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A77" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D77" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="A78" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D78" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D59" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A61" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A62" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A63" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A64" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D64" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A65" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D66" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A67" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D67" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A68" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D68" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A69" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D53" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A54" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D54" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A55" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D55" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A56" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D56" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D57" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A70" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D74" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A23" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D23" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A24" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D24" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A25" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D25" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A26" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D26" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A27" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D27" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A28" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D28" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A75" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D75" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A76" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D76" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A77" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D77" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A78" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D78" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A13" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D13" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A14" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D14" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A15" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D15" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A16" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D16" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A17" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D17" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A18" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D18" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A19" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D19" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A20" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D20" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A21" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D21" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A22" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D22" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D32" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A33" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D33" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A34" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D34" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A35" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D35" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A36" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D36" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A37" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D37" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A38" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D38" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A39" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D39" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A40" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D40" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A41" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D41" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A42" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D42" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A43" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D43" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A44" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D44" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A45" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D45" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A29" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D29" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A30" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D30" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A31" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D31" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="D9" r:id="rId150" xr:uid="{06FD6541-370D-8B4D-A805-BD9454E9473F}"/>
     <hyperlink ref="A9" r:id="rId151" xr:uid="{D7F1B177-4F22-6842-B3CE-0366A0550544}"/>
   </hyperlinks>

--- a/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gillianye/GitHub profile/Data-Structure-Algoritham/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6D84E-0309-0E40-8E84-F5F974EBCA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07D858D-7057-BA48-9DEB-628543788F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="1280" windowWidth="36560" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="2400" windowWidth="32860" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="347">
   <si>
     <t>Video Solution</t>
   </si>
@@ -61,9 +73,6 @@
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
   </si>
   <si>
-    <t>find local min and search for local max, sliding window;</t>
-  </si>
-  <si>
     <t>Contains Duplicate</t>
   </si>
   <si>
@@ -968,13 +977,120 @@
   </si>
   <si>
     <t>sliding window, if we see same char twice within curr window, shift start position; Using hashSet</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gVUrDV4tZfY</t>
+  </si>
+  <si>
+    <r>
+      <t>find local min and search for local max,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sliding window;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DfljaUwZsOk</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G8xtZy0fDKg&amp;t=85s</t>
+  </si>
+  <si>
+    <t>Hasmap to store all chars, and sliding winodw to check if substring is anargram to string p</t>
+  </si>
+  <si>
+    <t> Ransom Note</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ransom-note/</t>
+  </si>
+  <si>
+    <t>put two string into two hasmap and compare</t>
+  </si>
+  <si>
+    <t>Insert Delete GetRandom O(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-delete-getrandom-o1/</t>
+  </si>
+  <si>
+    <t>use hashmap and arraylist, hashmap to store value and its index, arraylist store the value itself.</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>use doublely linked list to store value, and use hashmap to store the key value(pointer to the Node), alos creat the Node clss</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/</t>
+  </si>
+  <si>
+    <t>Set base case as str.length is n * 2. Then recurseverly call the open and closed parenthesis with openN + 1 and ClosedN + 1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>The base case is that the comb list have length of k, add that to the final list res. Then recurverserly go through the rest of the list from i + 1</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>The base is when all elements in int [] nums have been considered. intially, index is 0, list is empty then element at index 0 have two functions call, one is 1 included, and the other one is not inlcuded continue till the last element</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Sorting and searching</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1091,8 +1207,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,8 +1287,14 @@
         <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1196,12 +1330,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1231,6 +1385,14 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1450,10 +1612,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1461,7 +1623,7 @@
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="5" max="5" width="167.5" customWidth="1"/>
+    <col min="5" max="5" width="217.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1512,7 +1674,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1521,1317 +1683,1426 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>310</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>311</v>
       </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>315</v>
-      </c>
+      <c r="A13" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D16" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E16" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="E15" s="27" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="D17" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>226</v>
+        <v>205</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>227</v>
+      <c r="A19" s="23" t="s">
+        <v>322</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>230</v>
+        <v>205</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>232</v>
+        <v>205</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>223</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>236</v>
+        <v>205</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>206</v>
+      <c r="A22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>165</v>
+        <v>205</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>169</v>
+      <c r="A24" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="D25" s="17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>179</v>
+        <v>163</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>181</v>
+        <v>163</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>185</v>
+        <v>163</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>301</v>
+        <v>163</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>302</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>305</v>
+        <v>184</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>247</v>
+        <v>299</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>251</v>
+        <v>299</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>259</v>
+        <v>243</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>261</v>
+        <v>243</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>269</v>
+        <v>243</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>273</v>
+        <v>243</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>279</v>
+        <v>243</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>287</v>
+        <v>243</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>295</v>
+        <v>243</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="D47" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D48" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="4" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="D49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="E49" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>116</v>
+        <v>44</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="D57" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E57" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="D60" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D61" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>150</v>
+        <v>105</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="D72" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>143</v>
+      <c r="A74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>189</v>
+      <c r="A76" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>198</v>
-      </c>
       <c r="D77" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="D80" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E80" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="15"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
-    </row>
-    <row r="83" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B82" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D82" t="s">
+        <v>329</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
-    </row>
-    <row r="84" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B83" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
-    </row>
-    <row r="85" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B84" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="D84" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
-    </row>
-    <row r="86" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B85" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C85" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
-    </row>
-    <row r="87" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B86" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
-    </row>
-    <row r="88" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B87" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="15"/>
     </row>
-    <row r="89" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
     </row>
-    <row r="90" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
     </row>
-    <row r="91" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="15"/>
     </row>
-    <row r="92" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="15"/>
     </row>
-    <row r="93" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
     </row>
-    <row r="94" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
     </row>
-    <row r="95" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
     </row>
-    <row r="96" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
     </row>
     <row r="97" spans="1:1" ht="13" x14ac:dyDescent="0.15">
@@ -5548,6 +5819,12 @@
     </row>
     <row r="1001" spans="1:1" ht="13" x14ac:dyDescent="0.15">
       <c r="A1001" s="15"/>
+    </row>
+    <row r="1002" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1002" s="15"/>
+    </row>
+    <row r="1003" spans="1:1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1003" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5570,138 +5847,141 @@
     <hyperlink ref="D12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="A11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D48" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D50" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A59" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D59" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A60" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A61" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D61" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A62" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D62" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A63" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A64" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D64" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A65" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D65" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A66" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D66" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A67" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D67" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A68" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D68" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A69" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D69" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D52" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D53" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A54" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D54" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A55" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D55" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A56" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D56" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A57" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D57" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D58" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A70" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D74" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A23" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D23" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A24" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D24" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A25" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D25" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A26" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D26" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A27" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D27" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A28" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D28" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A75" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D75" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A76" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D76" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A77" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D77" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A78" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D78" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A13" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D13" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A14" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D14" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A15" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D15" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A16" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D16" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A17" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D17" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A18" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D18" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A19" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D19" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A20" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D20" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A21" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D21" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A22" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D22" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="A32" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D32" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A33" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D33" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="A34" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D34" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="A35" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D35" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="A36" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D36" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="A37" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D37" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A38" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D38" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="A39" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D39" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A40" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D40" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="A41" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D41" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A42" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D42" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="A43" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D43" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="A44" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D44" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="A45" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D45" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="A29" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D29" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A30" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D30" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="A31" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D31" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D50" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A51" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D51" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A52" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A61" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A62" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D62" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A63" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D63" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A64" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A65" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D65" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A66" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D66" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D67" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A68" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D68" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A69" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D69" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A70" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D70" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A71" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D71" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D56" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A57" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D57" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A58" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D58" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A59" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D59" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A60" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D60" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A72" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D72" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A73" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A74" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A25" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="D25" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A26" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D26" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A27" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D27" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A28" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="D28" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A29" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="D29" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A30" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D30" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A77" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D77" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A78" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="D78" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A79" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D79" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A80" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="D80" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A14" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="D14" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A15" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D15" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A16" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D16" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A17" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D17" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A18" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D18" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A20" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D20" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A21" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="D21" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A22" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D22" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A23" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D23" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A24" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D24" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A34" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="D34" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A35" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D35" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A36" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="D36" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A37" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D37" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A38" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="D38" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A39" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D39" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A40" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D40" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A41" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D41" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A42" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="D42" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A43" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D43" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A44" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="D44" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A45" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D45" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A46" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="D46" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A47" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D47" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A31" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="D31" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A32" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="D32" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A33" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D33" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="D9" r:id="rId150" xr:uid="{06FD6541-370D-8B4D-A805-BD9454E9473F}"/>
     <hyperlink ref="A9" r:id="rId151" xr:uid="{D7F1B177-4F22-6842-B3CE-0366A0550544}"/>
+    <hyperlink ref="A48" r:id="rId152" xr:uid="{B66E26A7-F117-7748-BBC8-79B065E4449D}"/>
+    <hyperlink ref="D19" r:id="rId153" xr:uid="{E8EBEF8B-D7E4-7541-9F99-5FDB93F33A47}"/>
+    <hyperlink ref="A19" r:id="rId154" xr:uid="{65590002-3844-7C4B-8316-726781E7CCDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
